--- a/biology/Médecine/1223_en_santé_et_médecine/1223_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1223_en_santé_et_médecine/1223_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1223_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1223_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1223 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1223_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1223_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le maître zen japonais Dōgen remarque que les moines chinois se servent de brosses à dents en crin de cheval[1].
-Geoffroy d'Eu, « couronné du double laurier de la médecine et de la théologie[2] »,  reçoit l'investiture de l'évêché d'Amiens et, la même année, assiste avec son métropolitain, Guillaume de Joinville, archevêque de Reims, aux obsèques de Philippe Auguste.
-Une maison d'aumône (domus aleamosina en latin) est mentionnée à Amboise, en Touraine[3].
-Une léproserie est attestée à Châtelaudren, en Bretagne[4].
-Par la volonté de Mathilde, dame de Termonde en Flandre, l'hôpital Saint-Ægide devient abbaye de Swybeeck[5],[6].
-À Bruges en Flandre, l'hôpital Saint-Jean  est doté par Berthe, dame de Roden[5].
-1011-1223 : établissement au Vietnam, sous la dynastie des Ly, d'un service de « médecins royaux » chargés de veiller sur la santé du roi et de diffuser la connaissance et la pratique de leur art dans l'ensemble du pays[7].
-1218-1223[8] : lié depuis 1214 par ses fonctions d’archiatre, le médecin et chirurgien Hugues de Lucques (it) accompagne les troupes envoyées par Bologne en Terre sainte[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le maître zen japonais Dōgen remarque que les moines chinois se servent de brosses à dents en crin de cheval.
+Geoffroy d'Eu, « couronné du double laurier de la médecine et de la théologie »,  reçoit l'investiture de l'évêché d'Amiens et, la même année, assiste avec son métropolitain, Guillaume de Joinville, archevêque de Reims, aux obsèques de Philippe Auguste.
+Une maison d'aumône (domus aleamosina en latin) est mentionnée à Amboise, en Touraine.
+Une léproserie est attestée à Châtelaudren, en Bretagne.
+Par la volonté de Mathilde, dame de Termonde en Flandre, l'hôpital Saint-Ægide devient abbaye de Swybeeck,.
+À Bruges en Flandre, l'hôpital Saint-Jean  est doté par Berthe, dame de Roden.
+1011-1223 : établissement au Vietnam, sous la dynastie des Ly, d'un service de « médecins royaux » chargés de veiller sur la santé du roi et de diffuser la connaissance et la pratique de leur art dans l'ensemble du pays.
+1218-1223 : lié depuis 1214 par ses fonctions d’archiatre, le médecin et chirurgien Hugues de Lucques (it) accompagne les troupes envoyées par Bologne en Terre sainte.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1223_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1223_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1222 ou 1223 : David ben Abraham Maïmonide (mort en 1300), médecin, chef religieux de la communauté juive d'Égypte, petit-fils de Moïse Maïmonide[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1222 ou 1223 : David ben Abraham Maïmonide (mort en 1300), médecin, chef religieux de la communauté juive d'Égypte, petit-fils de Moïse Maïmonide.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1223_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1223_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Saed ben Touma (né à une date inconnue), médecin chrétien qui fut au service d'an-Nasir, calife abbasside de Bagdad[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Saed ben Touma (né à une date inconnue), médecin chrétien qui fut au service d'an-Nasir, calife abbasside de Bagdad.</t>
         </is>
       </c>
     </row>
